--- a/ImportPayment.xlsx
+++ b/ImportPayment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="19">
   <si>
     <t>N</t>
   </si>
@@ -85,19 +85,17 @@
   <si>
     <t>9.</t>
   </si>
-  <si>
-    <t>21/02/2025</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -757,13 +755,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1301,13 +1299,13 @@
   <sheetPr/>
   <dimension ref="A1:F1455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1451" workbookViewId="0">
-      <selection activeCell="B1455" sqref="B1455"/>
+    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
+      <selection activeCell="E827" sqref="E827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="10.2857142857143"/>
+    <col min="3" max="3" width="11.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17835,8 +17833,8 @@
       <c r="B827" s="6">
         <v>16745</v>
       </c>
-      <c r="C827" s="7" t="s">
-        <v>19</v>
+      <c r="C827" s="7">
+        <v>45709</v>
       </c>
       <c r="D827" s="5">
         <v>1260</v>
